--- a/medicine/Mort/La_Mort_de_Casagemas/La_Mort_de_Casagemas.xlsx
+++ b/medicine/Mort/La_Mort_de_Casagemas/La_Mort_de_Casagemas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Mort de Casagemas[1] est un tableau du peintre espagnol Pablo Picasso qu'il a réalisé en 1901.
-Le tableau est réputé pour avoir conditionné grandement le passage de Picasso à sa période bleue[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Mort de Casagemas est un tableau du peintre espagnol Pablo Picasso qu'il a réalisé en 1901.
+Le tableau est réputé pour avoir conditionné grandement le passage de Picasso à sa période bleue.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œuvre, une peinture à l'huile sur panneau de bois de 27 × 35 cm, se trouve au musée Picasso à Paris depuis 1979.
 </t>
@@ -543,14 +557,50 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau fait partie d'une séquence sur la mort de Carles Casagemas, fils du consul américain à Barcelone, peintre et ami de l'artiste.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le tableau fait partie d'une séquence sur la mort de Carles Casagemas, fils du consul américain à Barcelone, peintre et ami de l'artiste.
 Le suicide de Casagemas, dû à un chagrin d'amour avec la danseuse Germaine Pichot à Montmartre en 1901, a provoqué une profonde dévastation chez l'artiste, qui a affirmé avoir commencé à peindre en bleu après avoir réfléchi à la mort de son ami.
-« C'est en pensant à Casagemas que je me suis mis à peindre en bleu. »[3]
-— Pablo Picasso à Pierre Daix
-Autres œuvres
-L'image de Casagemas est aussi un personnage d'une autre œuvre du peintre, La Vie, de 1903.
+« C'est en pensant à Casagemas que je me suis mis à peindre en bleu. »
+— Pablo Picasso à Pierre Daix</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La_Mort_de_Casagemas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mort_de_Casagemas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres œuvres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'image de Casagemas est aussi un personnage d'une autre œuvre du peintre, La Vie, de 1903.
 </t>
         </is>
       </c>
